--- a/Memcached指南.xlsx
+++ b/Memcached指南.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
-    <sheet name="启动和停止" sheetId="2" r:id="rId2"/>
-    <sheet name="操作命令" sheetId="3" r:id="rId3"/>
+    <sheet name="Docker安装" sheetId="4" r:id="rId2"/>
+    <sheet name="启动和停止" sheetId="2" r:id="rId3"/>
+    <sheet name="操作命令" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,10 +270,6 @@
       </rPr>
       <t>:使用用户</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./memcached -m 16 -p 11211 -d -c 1024 -u root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,11 +389,31 @@
     <t>delete key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>docker pull memcached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -dp 11211:11211 --name my-memcached memcached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./memcached -m 16 -p 11211 -d -c 1024 -u root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,7 +552,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0EF69A-A304-473A-96C7-04B0DD8CC3EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B0EF69A-A304-473A-96C7-04B0DD8CC3EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,7 +596,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF816602-2798-4CA3-9020-0D236B2264D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF816602-2798-4CA3-9020-0D236B2264D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -623,7 +640,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF1BC82-EEED-4EB5-9809-B7DA861A266B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BF1BC82-EEED-4EB5-9809-B7DA861A266B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,7 +684,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C5DC07-A1D6-456C-8F34-06A96C638C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9C5DC07-A1D6-456C-8F34-06A96C638C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,7 +728,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CB95D2-E6AF-4B61-9C8B-A8A3FA99DFAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9CB95D2-E6AF-4B61-9C8B-A8A3FA99DFAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -755,7 +772,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A55A7B8-8642-4FDD-AE5B-F71FB9EFE740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A55A7B8-8642-4FDD-AE5B-F71FB9EFE740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -804,7 +821,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82429439-8ADF-4B7D-AE6A-789D5AFA8744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82429439-8ADF-4B7D-AE6A-789D5AFA8744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,7 +870,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1188B53F-90D2-424B-9AA8-163DD254A7A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1188B53F-90D2-424B-9AA8-163DD254A7A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +914,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC751A0-B237-40E6-B76F-8C015F26B732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEC751A0-B237-40E6-B76F-8C015F26B732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +958,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98763641-E495-4AF6-8BE3-5CA91B01E1CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98763641-E495-4AF6-8BE3-5CA91B01E1CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,7 +1002,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DCA72D-E0EF-4768-A054-A9AB31C0D011}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5DCA72D-E0EF-4768-A054-A9AB31C0D011}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1046,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF88D2A-4E76-49C4-AC92-9DC50E496E9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CF88D2A-4E76-49C4-AC92-9DC50E496E9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1492,10 +1509,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1512,12 +1566,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1547,37 +1601,37 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1587,44 +1641,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1633,32 +1687,32 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1667,17 +1721,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
